--- a/sydw/2020上/考点/11-马毛思想.xlsx
+++ b/sydw/2020上/考点/11-马毛思想.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="7140"/>
+    <workbookView windowWidth="11720" windowHeight="6870"/>
   </bookViews>
   <sheets>
     <sheet name="毛泽东思想" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="56">
   <si>
     <t>灵魂</t>
   </si>
@@ -38,6 +38,150 @@
   </si>
   <si>
     <t>精髓</t>
+  </si>
+  <si>
+    <t>开始萌芽</t>
+  </si>
+  <si>
+    <t>共产党创建和国民大革命时期</t>
+  </si>
+  <si>
+    <t>1921.7-1927.7</t>
+  </si>
+  <si>
+    <t>新民主主义基本思想的提出</t>
+  </si>
+  <si>
+    <t>《中国社会各阶段的分析》《湖南农民运动考察报告》</t>
+  </si>
+  <si>
+    <t>八七会议(1927.8)</t>
+  </si>
+  <si>
+    <t>总结大革命失败的经验教训，确定今后革命斗争方针，提出土地改革和武装斗争的基本路线</t>
+  </si>
+  <si>
+    <t>初步形成</t>
+  </si>
+  <si>
+    <t>土地革命战争前、中期</t>
+  </si>
+  <si>
+    <t>1927.7-1935.1</t>
+  </si>
+  <si>
+    <t>三湾改编(1927.9)</t>
+  </si>
+  <si>
+    <t>提出党对军队的绝对领导。</t>
+  </si>
+  <si>
+    <t>遵义会议(1935.1)</t>
+  </si>
+  <si>
+    <t>确立毛为核心领导，在中国革命危机关头解决了党的军事和组织问题。挽救了党、挽救了红军、挽救了中国革命，是党历史上生死攸关的转折点</t>
+  </si>
+  <si>
+    <t>达到成熟</t>
+  </si>
+  <si>
+    <t>土地革命后期和抗日战争时期</t>
+  </si>
+  <si>
+    <t>继续发展</t>
+  </si>
+  <si>
+    <t>解放战争时期和建国初期</t>
+  </si>
+  <si>
+    <t>曲折发展</t>
+  </si>
+  <si>
+    <t>社会主义建设时期</t>
+  </si>
+  <si>
+    <t>《中国红色政权为什么能够存在》</t>
+  </si>
+  <si>
+    <t>提出“工农武装割据”思想，以土地革命 为中心，以武装斗争为主要形式，以革命根据地为战略阵地，建设红色政权</t>
+  </si>
+  <si>
+    <t>形成时期的代表作</t>
+  </si>
+  <si>
+    <t>《星星之火可以燎原》</t>
+  </si>
+  <si>
+    <t>农村包围城市、武装夺取政权道路，标志毛思初步形成</t>
+  </si>
+  <si>
+    <t>《反对本本主义》</t>
+  </si>
+  <si>
+    <t>第一次明确提出思想路线问题，强调“没有调查就没有发言权”</t>
+  </si>
+  <si>
+    <t>成熟时期</t>
+  </si>
+  <si>
+    <t>1.党的七大把毛确立为全党的知道思想</t>
+  </si>
+  <si>
+    <t>2.成熟标志：</t>
+  </si>
+  <si>
+    <t>新民主主义革命理论科学体系的完整形成</t>
+  </si>
+  <si>
+    <t>3.第一次提出“毛泽东思想”概念的是王稼祥1943年在《解放日报》发表的《中国共产党与中国民族解放的道路》</t>
+  </si>
+  <si>
+    <t>《在晋绥干部会议上的讲话》</t>
+  </si>
+  <si>
+    <t>代表作</t>
+  </si>
+  <si>
+    <t>《论人民民主专政》</t>
+  </si>
+  <si>
+    <t>《关于正确处理人民内部矛盾的问题》</t>
+  </si>
+  <si>
+    <t>毛思的科学涵义</t>
+  </si>
+  <si>
+    <t>是马列在中国的运用和发展，是马克思主义的中国化的理论成果。</t>
+  </si>
+  <si>
+    <t>毛思的含义</t>
+  </si>
+  <si>
+    <t>是被实践证明了的关于中国革命和建设的正确的理论和经验总结</t>
+  </si>
+  <si>
+    <t>是中国共产党集体智慧的结晶</t>
+  </si>
+  <si>
+    <t>主要方面</t>
+  </si>
+  <si>
+    <t>新民主主义革命理论</t>
+  </si>
+  <si>
+    <t>社会主义革命和社会主义建设</t>
+  </si>
+  <si>
+    <t>军队建设和军事战略</t>
+  </si>
+  <si>
+    <t>政策和策略理论</t>
+  </si>
+  <si>
+    <t>思想政治工作和文化工作</t>
+  </si>
+  <si>
+    <t>党的建设</t>
   </si>
 </sst>
 </file>
@@ -46,11 +190,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -62,12 +206,13 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -75,6 +220,35 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -96,14 +270,70 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -116,99 +346,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -219,25 +356,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -249,157 +536,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -410,60 +547,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -484,9 +567,26 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -502,165 +602,202 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -982,13 +1119,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="C6:F20"/>
+  <dimension ref="A6:M72"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView tabSelected="1" topLeftCell="A51" workbookViewId="0">
+      <selection activeCell="A72" sqref="A72"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.25" defaultRowHeight="14" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="8.25" defaultRowHeight="14"/>
   <cols>
     <col min="1" max="16384" width="8.25" style="1"/>
   </cols>
@@ -1030,6 +1167,214 @@
         <v>5</v>
       </c>
     </row>
+    <row r="29" spans="2:13">
+      <c r="B29" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J29" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M29" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="30" spans="10:12">
+      <c r="J30" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L30" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="31" spans="2:12">
+      <c r="B31" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J31" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="L31" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="32" spans="10:12">
+      <c r="J32" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L32" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="33" spans="2:4">
+      <c r="B33" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="35" spans="2:4">
+      <c r="B35" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="37" spans="2:4">
+      <c r="B37" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="41" spans="4:8">
+      <c r="D41" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H41" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="42" spans="2:8">
+      <c r="B42" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H42" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="43" spans="4:8">
+      <c r="D43" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H43" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="46" spans="2:2">
+      <c r="B46" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="47" spans="3:3">
+      <c r="C47" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="48" spans="3:5">
+      <c r="C48" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="49" spans="3:3">
+      <c r="C49" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="51" spans="2:2">
+      <c r="B51" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="52" spans="4:4">
+      <c r="D52" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="53" spans="3:4">
+      <c r="C53" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="54" spans="4:4">
+      <c r="D54" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="58" spans="2:2">
+      <c r="B58" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="59" spans="5:5">
+      <c r="E59" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="60" spans="3:5">
+      <c r="C60" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="61" spans="5:5">
+      <c r="E61" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="63" spans="3:5">
+      <c r="C63" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="64" spans="5:5">
+      <c r="E64" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="65" spans="5:5">
+      <c r="E65" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="66" spans="5:5">
+      <c r="E66" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="67" spans="5:5">
+      <c r="E67" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="68" spans="5:5">
+      <c r="E68" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1">
+      <c r="A72" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/sydw/2020上/考点/11-马毛思想.xlsx
+++ b/sydw/2020上/考点/11-马毛思想.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="11720" windowHeight="6870"/>
+    <workbookView windowWidth="15150" windowHeight="13170"/>
   </bookViews>
   <sheets>
     <sheet name="毛泽东思想" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="150">
   <si>
     <t>灵魂</t>
   </si>
@@ -49,27 +49,57 @@
     <t>1921.7-1927.7</t>
   </si>
   <si>
+    <t>初步形成</t>
+  </si>
+  <si>
+    <t>土地革命战争前、中期</t>
+  </si>
+  <si>
+    <t>1927.7-1935.1</t>
+  </si>
+  <si>
+    <t>达到成熟</t>
+  </si>
+  <si>
+    <t>土地革命后期和抗日战争时期</t>
+  </si>
+  <si>
+    <t>继续发展</t>
+  </si>
+  <si>
+    <t>解放战争时期和建国初期</t>
+  </si>
+  <si>
+    <t>曲折发展</t>
+  </si>
+  <si>
+    <t>社会主义建设时期</t>
+  </si>
+  <si>
+    <t>萌芽标志</t>
+  </si>
+  <si>
     <t>新民主主义基本思想的提出</t>
   </si>
   <si>
+    <t>萌芽代表作</t>
+  </si>
+  <si>
     <t>《中国社会各阶段的分析》《湖南农民运动考察报告》</t>
   </si>
   <si>
+    <t>初步形成标志</t>
+  </si>
+  <si>
+    <t>《星星之火可以燎原》</t>
+  </si>
+  <si>
     <t>八七会议(1927.8)</t>
   </si>
   <si>
     <t>总结大革命失败的经验教训，确定今后革命斗争方针，提出土地改革和武装斗争的基本路线</t>
   </si>
   <si>
-    <t>初步形成</t>
-  </si>
-  <si>
-    <t>土地革命战争前、中期</t>
-  </si>
-  <si>
-    <t>1927.7-1935.1</t>
-  </si>
-  <si>
     <t>三湾改编(1927.9)</t>
   </si>
   <si>
@@ -82,24 +112,6 @@
     <t>确立毛为核心领导，在中国革命危机关头解决了党的军事和组织问题。挽救了党、挽救了红军、挽救了中国革命，是党历史上生死攸关的转折点</t>
   </si>
   <si>
-    <t>达到成熟</t>
-  </si>
-  <si>
-    <t>土地革命后期和抗日战争时期</t>
-  </si>
-  <si>
-    <t>继续发展</t>
-  </si>
-  <si>
-    <t>解放战争时期和建国初期</t>
-  </si>
-  <si>
-    <t>曲折发展</t>
-  </si>
-  <si>
-    <t>社会主义建设时期</t>
-  </si>
-  <si>
     <t>《中国红色政权为什么能够存在》</t>
   </si>
   <si>
@@ -109,9 +121,6 @@
     <t>形成时期的代表作</t>
   </si>
   <si>
-    <t>《星星之火可以燎原》</t>
-  </si>
-  <si>
     <t>农村包围城市、武装夺取政权道路，标志毛思初步形成</t>
   </si>
   <si>
@@ -145,6 +154,9 @@
     <t>《论人民民主专政》</t>
   </si>
   <si>
+    <t>《论十大关系》</t>
+  </si>
+  <si>
     <t>《关于正确处理人民内部矛盾的问题》</t>
   </si>
   <si>
@@ -163,25 +175,295 @@
     <t>是中国共产党集体智慧的结晶</t>
   </si>
   <si>
-    <t>主要方面</t>
+    <t>毛思体系</t>
+  </si>
+  <si>
+    <t>1.新民主主义革命理论</t>
+  </si>
+  <si>
+    <t>2.社会主义革命和社会主义建设</t>
+  </si>
+  <si>
+    <t>3.军队建设和军事战略</t>
+  </si>
+  <si>
+    <t>4.政策和策略理论</t>
+  </si>
+  <si>
+    <t>5.思想政治工作和文化工作</t>
+  </si>
+  <si>
+    <t>6.党的建设</t>
   </si>
   <si>
     <t>新民主主义革命理论</t>
   </si>
   <si>
-    <t>社会主义革命和社会主义建设</t>
-  </si>
-  <si>
-    <t>军队建设和军事战略</t>
-  </si>
-  <si>
-    <t>政策和策略理论</t>
-  </si>
-  <si>
-    <t>思想政治工作和文化工作</t>
+    <t>总路线</t>
+  </si>
+  <si>
+    <t>1948年4月</t>
+  </si>
+  <si>
+    <t>提出新民主主义革命总路线</t>
+  </si>
+  <si>
+    <t>无产阶级领导的，人民大众的，反对帝国主义、封建主义和官僚资本主义的革命的形成</t>
+  </si>
+  <si>
+    <t>政治</t>
+  </si>
+  <si>
+    <t>建立新民主主义的共和国</t>
+  </si>
+  <si>
+    <t>经济</t>
+  </si>
+  <si>
+    <t>没收封建阶级的土地归农民所有，</t>
+  </si>
+  <si>
+    <t>没收垄断资本归新民主主义的国家所有，</t>
+  </si>
+  <si>
+    <t>保护民族工商业</t>
+  </si>
+  <si>
+    <t>文化</t>
+  </si>
+  <si>
+    <t>民族的科学的大众的文化</t>
+  </si>
+  <si>
+    <t>军事</t>
+  </si>
+  <si>
+    <t>农村包围城市，武装夺取政权</t>
+  </si>
+  <si>
+    <t>统</t>
+  </si>
+  <si>
+    <t>统一战线</t>
+  </si>
+  <si>
+    <t>两个联盟，劳动这之间，劳动者和非劳动者之间</t>
+  </si>
+  <si>
+    <t>新民主的基本经验</t>
+  </si>
+  <si>
+    <t>武</t>
+  </si>
+  <si>
+    <t>武装斗争</t>
+  </si>
+  <si>
+    <t>党</t>
   </si>
   <si>
     <t>党的建设</t>
+  </si>
+  <si>
+    <t>思想建设(基础)/政治建设/组织建设/作风建设</t>
+  </si>
+  <si>
+    <t>延安整风运动</t>
+  </si>
+  <si>
+    <t>是中国共产党历史上第一次大规模的整风运动</t>
+  </si>
+  <si>
+    <t>开始标志</t>
+  </si>
+  <si>
+    <t>1941年5月，毛作《改造我们的学习》的报告</t>
+  </si>
+  <si>
+    <t>结束标志</t>
+  </si>
+  <si>
+    <t>1945年4月20日六届七中全会通过《关于若干历史问题的决议》</t>
+  </si>
+  <si>
+    <t>意义</t>
+  </si>
+  <si>
+    <t>使全党确立了一条实事求是的辩证唯物主义的思想路线，</t>
+  </si>
+  <si>
+    <t>使干部在思想上大大地提高一步，使党达到了空前的团结</t>
+  </si>
+  <si>
+    <t>毛泽东思想是运动的重大成果</t>
+  </si>
+  <si>
+    <t>第一次提出“毛泽东思想”概念的是王稼祥1943年在《解放日报》发表的《中国共产党与中国民族解放的道路》</t>
+  </si>
+  <si>
+    <t>方针</t>
+  </si>
+  <si>
+    <t>惩前毖后，治病救人</t>
+  </si>
+  <si>
+    <t>运动内容</t>
+  </si>
+  <si>
+    <t>反对主观主义整顿学风</t>
+  </si>
+  <si>
+    <t>中心内容</t>
+  </si>
+  <si>
+    <t>毛讽刺“墙上芦苇，头重脚轻根底浅；山间竹笋，嘴尖皮厚腹中空</t>
+  </si>
+  <si>
+    <t>反对宗派主义整顿党风</t>
+  </si>
+  <si>
+    <t>反对党八股整顿文风</t>
+  </si>
+  <si>
+    <t>理论联系实际</t>
+  </si>
+  <si>
+    <t>党的三大优良作风</t>
+  </si>
+  <si>
+    <t>秘密联系群众</t>
+  </si>
+  <si>
+    <t>批评与自我批评</t>
+  </si>
+  <si>
+    <t>形式主义</t>
+  </si>
+  <si>
+    <t>反对”四风“</t>
+  </si>
+  <si>
+    <t>官僚主义</t>
+  </si>
+  <si>
+    <t>享乐主义</t>
+  </si>
+  <si>
+    <t>奢靡之风</t>
+  </si>
+  <si>
+    <t>社会主义改造和建设的理论</t>
+  </si>
+  <si>
+    <t>社会主义改造</t>
+  </si>
+  <si>
+    <t>中华人民国和国的成立，标志着中国进入了新民主主义社会。过渡性质的社会</t>
+  </si>
+  <si>
+    <t>农业</t>
+  </si>
+  <si>
+    <t>自愿互利、典型示范和国家帮助</t>
+  </si>
+  <si>
+    <t>步骤</t>
+  </si>
+  <si>
+    <t>互助组</t>
+  </si>
+  <si>
+    <t>初级社</t>
+  </si>
+  <si>
+    <t>半社会主义性质的初级农业生产</t>
+  </si>
+  <si>
+    <t>合作社</t>
+  </si>
+  <si>
+    <t>高级社</t>
+  </si>
+  <si>
+    <t>完全社会主义性质高级农业生产合作社</t>
+  </si>
+  <si>
+    <t>三大改造</t>
+  </si>
+  <si>
+    <t>手工业</t>
+  </si>
+  <si>
+    <t>积极引导、稳步前进</t>
+  </si>
+  <si>
+    <t>供销合作小组  ---  供销合作社 --- 生产合作社</t>
+  </si>
+  <si>
+    <t>资本主义工商业</t>
+  </si>
+  <si>
+    <t>官僚子本</t>
+  </si>
+  <si>
+    <t>无偿没收</t>
+  </si>
+  <si>
+    <t>民族子本</t>
+  </si>
+  <si>
+    <t>利用、限制、改造(和平赎买)</t>
+  </si>
+  <si>
+    <t>1956年底，基本完成了对生产资料私有制的社会主义改造，标志社会主义制度在中国的基本确立。</t>
+  </si>
+  <si>
+    <t>中国已经从新民主主义社会开始进入社会主义初级阶段。</t>
+  </si>
+  <si>
+    <t>初级阶段的矛盾</t>
+  </si>
+  <si>
+    <t>人民对经济文化迅速发展的需要同经济文化不能满足人民需要的状况之间的矛盾</t>
+  </si>
+  <si>
+    <t>社会主义建设</t>
+  </si>
+  <si>
+    <t>政治上</t>
+  </si>
+  <si>
+    <t>团结-批评-团结</t>
+  </si>
+  <si>
+    <t>经济上</t>
+  </si>
+  <si>
+    <t>统筹兼顾、适当安排</t>
+  </si>
+  <si>
+    <t>民主党派关系上</t>
+  </si>
+  <si>
+    <t>长期共存、互相监督</t>
+  </si>
+  <si>
+    <t>对待历史和传统文化采取“古为今用”</t>
+  </si>
+  <si>
+    <t>科学文化上</t>
+  </si>
+  <si>
+    <t>百花齐放、百家争鸣</t>
+  </si>
+  <si>
+    <t>对待外国文化采取“洋为中用”</t>
+  </si>
+  <si>
+    <t>两个务必</t>
+  </si>
+  <si>
+    <t>1949年2月3日至13日在西柏坡七届二中全会提出加强执政党建设</t>
   </si>
 </sst>
 </file>
@@ -190,8 +472,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
@@ -204,22 +486,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -234,51 +508,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -309,7 +546,30 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -331,9 +591,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -346,6 +605,29 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -356,31 +638,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -392,151 +818,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -550,16 +832,16 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -567,11 +849,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -594,8 +874,23 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -603,32 +898,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -647,16 +918,27 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -665,139 +947,139 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="32" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1119,13 +1401,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A6:M72"/>
+  <dimension ref="A6:I154"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A51" workbookViewId="0">
-      <selection activeCell="A72" sqref="A72"/>
+    <sheetView tabSelected="1" topLeftCell="A66" workbookViewId="0">
+      <selection activeCell="J96" sqref="J96"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.25" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="8.25" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="16384" width="8.25" style="1"/>
   </cols>
@@ -1167,7 +1449,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="29" spans="2:13">
+    <row r="29" spans="2:8">
       <c r="B29" s="1" t="s">
         <v>8</v>
       </c>
@@ -1177,202 +1459,607 @@
       <c r="H29" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="J29" s="1" t="s">
+    </row>
+    <row r="31" spans="2:8">
+      <c r="B31" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M29" s="1" t="s">
+      <c r="D31" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="30" spans="10:12">
-      <c r="J30" s="1" t="s">
+      <c r="H31" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="L30" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="31" spans="2:12">
-      <c r="B31" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H31" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="J31" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="L31" s="1" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="32" spans="10:12">
-      <c r="J32" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="L32" s="1" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="33" spans="2:4">
       <c r="B33" s="1" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
     </row>
     <row r="35" spans="2:4">
       <c r="B35" s="1" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>25</v>
+        <v>17</v>
       </c>
     </row>
     <row r="37" spans="2:4">
       <c r="B37" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="41" spans="2:5">
+      <c r="B41" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="42" spans="2:5">
+      <c r="B42" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="45" spans="2:4">
+      <c r="B45" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="47" spans="4:6">
+      <c r="D47" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D37" s="1" t="s">
+      <c r="F47" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="41" spans="4:8">
-      <c r="D41" s="1" t="s">
+    <row r="48" spans="4:6">
+      <c r="D48" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="H41" s="1" t="s">
+      <c r="F48" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="42" spans="2:8">
-      <c r="B42" s="1" t="s">
+    <row r="49" spans="4:6">
+      <c r="D49" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D42" s="1" t="s">
+      <c r="F49" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="H42" s="1" t="s">
+    </row>
+    <row r="51" spans="4:8">
+      <c r="D51" s="1" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="43" spans="4:8">
-      <c r="D43" s="1" t="s">
+      <c r="H51" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="H43" s="1" t="s">
+    </row>
+    <row r="52" spans="2:8">
+      <c r="B52" s="1" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="46" spans="2:2">
-      <c r="B46" s="1" t="s">
+      <c r="D52" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H52" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="47" spans="3:3">
-      <c r="C47" s="1" t="s">
+    <row r="53" spans="4:8">
+      <c r="D53" s="1" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="48" spans="3:5">
-      <c r="C48" s="1" t="s">
+      <c r="H53" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E48" s="1" t="s">
+    </row>
+    <row r="56" spans="2:2">
+      <c r="B56" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="49" spans="3:3">
-      <c r="C49" s="1" t="s">
+    <row r="57" spans="3:3">
+      <c r="C57" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="51" spans="2:2">
-      <c r="B51" s="1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="52" spans="4:4">
-      <c r="D52" s="1" t="s">
+    <row r="58" spans="3:5">
+      <c r="C58" s="1" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="53" spans="3:4">
-      <c r="C53" s="1" t="s">
+      <c r="E58" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D53" s="1" t="s">
+    </row>
+    <row r="59" spans="3:3">
+      <c r="C59" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="54" spans="4:4">
-      <c r="D54" s="1" t="s">
+    <row r="61" spans="2:2">
+      <c r="B61" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="62" spans="4:4">
+      <c r="D62" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="58" spans="2:2">
-      <c r="B58" s="1" t="s">
+    <row r="63" spans="3:4">
+      <c r="C63" s="1" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="59" spans="5:5">
-      <c r="E59" s="1" t="s">
+      <c r="D63" s="1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="60" spans="3:5">
-      <c r="C60" s="1" t="s">
+    <row r="64" spans="4:4">
+      <c r="D64" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="E60" s="1" t="s">
+    </row>
+    <row r="65" spans="4:4">
+      <c r="D65" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="61" spans="5:5">
-      <c r="E61" s="1" t="s">
+    <row r="68" spans="2:2">
+      <c r="B68" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="63" spans="3:5">
-      <c r="C63" s="1" t="s">
+    <row r="69" spans="5:5">
+      <c r="E69" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="E63" s="1" t="s">
+    </row>
+    <row r="70" spans="3:5">
+      <c r="C70" s="1" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="64" spans="5:5">
-      <c r="E64" s="1" t="s">
+      <c r="E70" s="1" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="65" spans="5:5">
-      <c r="E65" s="1" t="s">
+    <row r="71" spans="5:5">
+      <c r="E71" s="1" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="66" spans="5:5">
-      <c r="E66" s="1" t="s">
+    <row r="73" spans="3:5">
+      <c r="C73" s="1" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="67" spans="5:5">
-      <c r="E67" s="1" t="s">
+      <c r="E73" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="68" spans="5:5">
-      <c r="E68" s="1" t="s">
+    <row r="74" spans="5:5">
+      <c r="E74" s="1" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="72" spans="1:1">
-      <c r="A72" s="1" t="s">
-        <v>50</v>
+    <row r="75" spans="5:5">
+      <c r="E75" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="76" spans="5:5">
+      <c r="E76" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="77" spans="5:5">
+      <c r="E77" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="78" spans="5:5">
+      <c r="E78" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1">
+      <c r="A80" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="81" spans="2:2">
+      <c r="B81" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="82" spans="3:9">
+      <c r="C82" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E82" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="I82" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="83" spans="6:6">
+      <c r="F83" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="86" spans="2:3">
+      <c r="B86" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="87" spans="2:3">
+      <c r="B87" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="88" spans="3:3">
+      <c r="C88" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="89" spans="3:3">
+      <c r="C89" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="90" spans="2:3">
+      <c r="B90" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C90" s="1" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="91" spans="2:3">
+      <c r="B91" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C91" s="1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="93" spans="4:7">
+      <c r="D93" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="E93" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="G93" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="94" spans="2:5">
+      <c r="B94" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D94" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="E94" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="95" spans="4:7">
+      <c r="D95" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="E95" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="G95" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="99" spans="2:2">
+      <c r="B99" s="1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="100" spans="3:3">
+      <c r="C100" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="102" spans="3:4">
+      <c r="C102" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="D102" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="103" spans="3:4">
+      <c r="C103" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D103" s="1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="105" spans="3:4">
+      <c r="C105" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D105" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="106" spans="4:4">
+      <c r="D106" s="1" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="107" spans="4:9">
+      <c r="D107" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="I107" s="1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="109" spans="3:4">
+      <c r="C109" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="D109" s="1" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="111" spans="3:9">
+      <c r="C111" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D111" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="G111" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="I111" s="1" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="112" spans="4:4">
+      <c r="D112" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="113" spans="4:4">
+      <c r="D113" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="116" spans="4:4">
+      <c r="D116" s="1" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="117" spans="2:4">
+      <c r="B117" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="D117" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="118" spans="4:4">
+      <c r="D118" s="1" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="120" spans="4:4">
+      <c r="D120" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="121" spans="2:4">
+      <c r="B121" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="D121" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="122" spans="4:4">
+      <c r="D122" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="123" spans="4:4">
+      <c r="D123" s="1" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="127" spans="2:2">
+      <c r="B127" s="1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="129" spans="3:3">
+      <c r="C129" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="130" spans="4:4">
+      <c r="D130" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="132" spans="4:6">
+      <c r="D132" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="E132" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="F132" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="133" spans="5:8">
+      <c r="E133" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="F133" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="G133" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="H133" s="1" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="134" spans="6:8">
+      <c r="F134" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="G134" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="H134" s="1" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="135" spans="3:6">
+      <c r="C135" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="D135" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="E135" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="F135" s="1" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="136" spans="5:6">
+      <c r="E136" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="F136" s="1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="138" spans="4:7">
+      <c r="D138" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="F138" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="G138" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="139" spans="6:7">
+      <c r="F139" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="G139" s="1" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="141" spans="4:4">
+      <c r="D141" s="1" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="142" spans="4:4">
+      <c r="D142" s="1" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="143" spans="4:6">
+      <c r="D143" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="F143" s="1" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="147" spans="1:1">
+      <c r="A147" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="150" spans="3:5">
+      <c r="C150" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="E150" s="1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="151" spans="3:5">
+      <c r="C151" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="E151" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="152" spans="3:8">
+      <c r="C152" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="E152" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="H152" s="1" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="153" spans="3:8">
+      <c r="C153" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="E153" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="H153" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="154" spans="3:7">
+      <c r="C154" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="E154" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="G154" s="1" t="s">
+        <v>149</v>
       </c>
     </row>
   </sheetData>
